--- a/data/top_decade_songs_translated.xlsx
+++ b/data/top_decade_songs_translated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\SICSS India\sicss-project-github\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE72B856-1325-4DD6-AFE1-01E922623DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE6B143-13C4-4A9B-89CB-68319EC2EF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$71</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -11063,13 +11063,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J50" workbookViewId="0">
-      <selection activeCell="X50" sqref="X50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X75" sqref="X75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
@@ -13312,7 +13313,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>232</v>
       </c>
@@ -13552,7 +13553,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>251</v>
       </c>
@@ -13632,7 +13633,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>258</v>
       </c>
@@ -14352,7 +14353,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>351</v>
       </c>
@@ -14432,7 +14433,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>327</v>
       </c>
@@ -14512,7 +14513,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>336</v>
       </c>
@@ -14592,7 +14593,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>344</v>
       </c>
@@ -14672,7 +14673,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>358</v>
       </c>
@@ -14752,7 +14753,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>366</v>
       </c>
@@ -14832,7 +14833,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>374</v>
       </c>
@@ -14912,7 +14913,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>379</v>
       </c>
@@ -14992,7 +14993,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>319</v>
       </c>
@@ -15952,7 +15953,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>467</v>
       </c>
@@ -16672,7 +16673,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>529</v>
       </c>
@@ -16753,10 +16754,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z70" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="21">
+  <autoFilter ref="A1:Z71" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="25">
       <filters>
-        <filter val="2000"/>
+        <filter val="No Translations Found"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:Z50">

--- a/data/top_decade_songs_translated.xlsx
+++ b/data/top_decade_songs_translated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\SICSS India\sicss-project-github\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3718bcc9183a9f2/Documents/GitHub/sicss-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE6B143-13C4-4A9B-89CB-68319EC2EF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{0EE6B143-13C4-4A9B-89CB-68319EC2EF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50AED61A-A475-4169-B258-A7713347EEBF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="540">
   <si>
     <t>track_id</t>
   </si>
@@ -3995,9 +3995,6 @@
 Jaanam jaanejaan jaanam jaanejahaan
 Jaanam jaanejaan jaanam jaanejahaan.
 </t>
-  </si>
-  <si>
-    <t>No Translations Found</t>
   </si>
   <si>
     <t>3Q8WCb10T1EWrjQyb3DCTr</t>
@@ -10694,6 +10691,204 @@
 When you hear a little drunken wind started telling you
 That Aditi, those who parted would get back one day or the other.
 Whether you know this Aditi or not, the flowers bloom again</t>
+  </si>
+  <si>
+    <t>dear friend
+darling jahan
+dear sweetheart
+I have your oath
+you didn't get me
+I will die Sanam
+dear sweetheart
+I have your oath
+you didn't get me
+I will die Sanam
+oh will stop us
+what time now
+we have to die
+Fulfill the promise
+dear sweetheart
+I have your oath
+you didn't get me
+I will die Sanam
+from flowers to buds
+I will fill your demand with stars
+from flowers to buds
+I will fill your demand with stars
+I'm breathless
+I will name the deaf
+i love you
+sigh day and night
+sigh i sigh
+dear sweetheart
+I have your oath
+you didn't get me
+I will die Sanam
+dear sweetheart
+I have your oath
+you didn't get me
+I will die Sanam
+How do you pass without
+don't ask me day and night
+How do you pass without
+don't ask me day and night
+what is hidden in my heart
+don't ask me about that
+when two hearts beat
+suffer like this
+agonizes agonizes
+dear sweetheart
+I have your oath
+you didn't get me
+I will die Sanam
+oh will stop us
+what time now
+we have to die
+Fulfill the promise
+dear sweetheart
+I have your oath
+you didn't get me
+I will die Sanam
+know know know know where
+Know, know, know, know where.</t>
+  </si>
+  <si>
+    <t>this beautiful valley
+this open sky
+came we said
+ay me sajna
+in these springs
+heart blossomed
+i got what you
+got all the happiness
+on your lips
+beauty of light
+are on your cheeks
+sliver of swirl
+the scent of your hair
+Se Mehke Chaman
+marble-like
+this is your body
+my sweetheart
+Teri Chandni
+tease you today
+koi pyar ki ragini
+this beautiful valley
+this open sky
+where have we come
+ay me sajna
+this bond is love
+Look don't break
+it's with the births
+look don't miss
+of your shadow
+thale i got my destination
+the shade of your eyelids
+I got that love
+This beautiful river, this open sky
+where have we come my adornment
+Heart blossomed in these springs
+I got every happiness you got
+This beautiful river, this open sky
+where have we come my adornment
+ji does adorn the heart
+I will make you sit
+in the night of fun
+make your own lun
+Are the storms starting to rise?
+Aye Sanam in my chest
+I want you dearly
+my sweetheart, your oath
+This beautiful river, this open sky
+where have we come my adornment
+Heart blossomed in these springs
+I got every happiness you got
+my sweetheart main teri moonlight
+Tease your love today
+This beautiful river, this open sky
+where have we come my adornment
+This beautiful river, this open sky
+Where have we come my adornment.</t>
+  </si>
+  <si>
+    <t>even if you say nothing
+I listened to...
+chose me….
+I have chosen.. I have listened.
+First Intoxication…First Hummer
+new love…new waiting
+What is your condition in Karlu?
+My heart is desperate… you only tell..
+First Drunk.. First Hummer
+As soon as it flies, it is said in these winds
+Or I jhul jaavu somewhere in these subtractions….
+As soon as it flies, it is said in these winds
+Or I jhul jaavu somewhere in these subtractions….
+Let the sky and the earth unite…
+Tell me guys what to do or not..
+First Intoxication…First Hummer
+new love…new waiting
+What is your condition in Karlu?
+My heart is desperate… you only tell..
+First Drunk.. First Hummer
+he talked with such a dong
+Dreams have been given to thousands of colors
+He talked with some dong like this
+Dreams have been given to thousands of colors
+Be like I'm defeated..
+and kiss me with love
+First Intoxication…First Hummer
+New love...new waiting
+What is your condition in Karlu?
+My heart is desperate… you only tell.</t>
+  </si>
+  <si>
+    <t>Ankhiya Yeh Ankhiya Found Ankhiya
+diarrhea
+you made your dreams come true
+Bloomed
+Mallika, you are the king
+Mallika, you are the king
+Mallika, you are the king
+Aaja na ru baru
+Ankhiya Yeh Ankhiya Found Ankhiya
+diarrhea
+you made your dreams come true
+Bloomed
+Mallika, you are the king
+Mallika, you are the king
+Mallika, you are the king
+Aaja na ru baru
+See you smell this sight
+Ha see you smell this sight
+If I can't see your breath, it stops
+Played like with Chand Chakori
+you also take me in your arms
+Ha Nazaro Mein Fun, Smell Mein Breath
+Sokhiya is in the eyes
+Mallika, you are the king
+Mallika, you are the king
+Mallika, you are the king
+Aaja na ru baru
+Don't know what is the effect of desire
+Don't know what is the effect of desire
+My heart is thirsty, this liver is thirsty
+Just tell someone this thirst
+There is still fire in the mind, the soul is thirsty
+you are my soul you are in this heart
+you are my go
+Mallika, you are the king
+Mallika, you are the king
+Mallika, you are the king
+Aaja na ru baru
+Ankhiya Yeh Ankhiya Found Ankhiya
+diarrhea
+you made your dreams come true
+Bloomed
+Mallika, you are the king
+Mallika, you are the king
+Mallika, you are the king
+Aaja na ru baru.</t>
   </si>
 </sst>
 </file>
@@ -11064,16 +11259,17 @@
   <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X75" sqref="X75"/>
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.54296875" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="26" max="26" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11153,7 +11349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -11233,7 +11429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -11313,7 +11509,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -11393,7 +11589,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -11473,7 +11669,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -11553,7 +11749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -11633,7 +11829,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -11713,7 +11909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -11793,7 +11989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -11873,7 +12069,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -11953,7 +12149,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -12033,7 +12229,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -12113,7 +12309,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -12193,7 +12389,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -12273,7 +12469,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -12353,7 +12549,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -12433,7 +12629,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -12513,7 +12709,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -12593,7 +12789,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -12673,7 +12869,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>172</v>
       </c>
@@ -12753,7 +12949,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -12833,7 +13029,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -12913,7 +13109,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>192</v>
       </c>
@@ -12993,7 +13189,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>200</v>
       </c>
@@ -13073,7 +13269,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>209</v>
       </c>
@@ -13153,7 +13349,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>216</v>
       </c>
@@ -13233,7 +13429,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>224</v>
       </c>
@@ -13313,7 +13509,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>232</v>
       </c>
@@ -13389,25 +13585,25 @@
       <c r="Y29" t="s">
         <v>34</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Z29" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>237</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>238</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>239</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>240</v>
-      </c>
-      <c r="E30" t="s">
-        <v>241</v>
       </c>
       <c r="F30">
         <v>3.5472500000000002E-4</v>
@@ -13461,24 +13657,24 @@
         <v>1980</v>
       </c>
       <c r="W30" t="s">
+        <v>241</v>
+      </c>
+      <c r="X30" t="s">
         <v>242</v>
-      </c>
-      <c r="X30" t="s">
-        <v>243</v>
       </c>
       <c r="Y30" t="s">
         <v>34</v>
       </c>
       <c r="Z30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>245</v>
-      </c>
-      <c r="B31" t="s">
-        <v>246</v>
       </c>
       <c r="C31" t="s">
         <v>202</v>
@@ -13532,7 +13728,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U31">
         <v>1989</v>
@@ -13541,33 +13737,33 @@
         <v>1980</v>
       </c>
       <c r="W31" t="s">
+        <v>247</v>
+      </c>
+      <c r="X31" t="s">
         <v>248</v>
-      </c>
-      <c r="X31" t="s">
-        <v>249</v>
       </c>
       <c r="Y31" t="s">
         <v>34</v>
       </c>
       <c r="Z31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>251</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>252</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>253</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>254</v>
-      </c>
-      <c r="E32" t="s">
-        <v>255</v>
       </c>
       <c r="F32">
         <v>3.2001300000000001E-4</v>
@@ -13612,7 +13808,7 @@
         <v>1</v>
       </c>
       <c r="T32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U32">
         <v>1994</v>
@@ -13621,33 +13817,33 @@
         <v>1990</v>
       </c>
       <c r="W32" t="s">
+        <v>255</v>
+      </c>
+      <c r="X32" t="s">
         <v>256</v>
-      </c>
-      <c r="X32" t="s">
-        <v>257</v>
       </c>
       <c r="Y32" t="s">
         <v>34</v>
       </c>
-      <c r="Z32" t="s">
-        <v>236</v>
+      <c r="Z32" s="3" t="s">
+        <v>537</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" t="s">
         <v>258</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>259</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>260</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>261</v>
-      </c>
-      <c r="E33" t="s">
-        <v>262</v>
       </c>
       <c r="F33">
         <v>2.9139999999999998E-4</v>
@@ -13692,7 +13888,7 @@
         <v>1</v>
       </c>
       <c r="T33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U33">
         <v>1992</v>
@@ -13701,33 +13897,33 @@
         <v>1990</v>
       </c>
       <c r="W33" t="s">
+        <v>262</v>
+      </c>
+      <c r="X33" t="s">
         <v>263</v>
-      </c>
-      <c r="X33" t="s">
-        <v>264</v>
       </c>
       <c r="Y33" t="s">
         <v>34</v>
       </c>
-      <c r="Z33" t="s">
-        <v>236</v>
+      <c r="Z33" s="3" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" t="s">
         <v>265</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>266</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>267</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>268</v>
-      </c>
-      <c r="E34" t="s">
-        <v>269</v>
       </c>
       <c r="F34">
         <v>3.9777299999999997E-4</v>
@@ -13772,7 +13968,7 @@
         <v>1</v>
       </c>
       <c r="T34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U34">
         <v>1999</v>
@@ -13781,33 +13977,33 @@
         <v>1990</v>
       </c>
       <c r="W34" t="s">
+        <v>269</v>
+      </c>
+      <c r="X34" t="s">
         <v>270</v>
-      </c>
-      <c r="X34" t="s">
-        <v>271</v>
       </c>
       <c r="Y34" t="s">
         <v>34</v>
       </c>
       <c r="Z34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>273</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>274</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" t="s">
         <v>275</v>
-      </c>
-      <c r="D35" t="s">
-        <v>261</v>
-      </c>
-      <c r="E35" t="s">
-        <v>276</v>
       </c>
       <c r="F35">
         <v>3.8170599999999999E-4</v>
@@ -13852,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U35">
         <v>1998</v>
@@ -13861,33 +14057,33 @@
         <v>1990</v>
       </c>
       <c r="W35" t="s">
+        <v>276</v>
+      </c>
+      <c r="X35" t="s">
         <v>277</v>
-      </c>
-      <c r="X35" t="s">
-        <v>278</v>
       </c>
       <c r="Y35" t="s">
         <v>34</v>
       </c>
       <c r="Z35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>280</v>
       </c>
-      <c r="B36" t="s">
-        <v>281</v>
-      </c>
       <c r="C36" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" t="s">
         <v>275</v>
-      </c>
-      <c r="D36" t="s">
-        <v>261</v>
-      </c>
-      <c r="E36" t="s">
-        <v>276</v>
       </c>
       <c r="F36">
         <v>4.3769300000000001E-4</v>
@@ -13932,7 +14128,7 @@
         <v>1</v>
       </c>
       <c r="T36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U36">
         <v>1998</v>
@@ -13941,33 +14137,33 @@
         <v>1990</v>
       </c>
       <c r="W36" t="s">
+        <v>282</v>
+      </c>
+      <c r="X36" t="s">
         <v>283</v>
-      </c>
-      <c r="X36" t="s">
-        <v>284</v>
       </c>
       <c r="Y36" t="s">
         <v>34</v>
       </c>
       <c r="Z36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>286</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>287</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37" t="s">
         <v>288</v>
-      </c>
-      <c r="D37" t="s">
-        <v>254</v>
-      </c>
-      <c r="E37" t="s">
-        <v>289</v>
       </c>
       <c r="F37">
         <v>1.5420000000000001E-4</v>
@@ -14012,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="T37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U37">
         <v>1999</v>
@@ -14021,33 +14217,33 @@
         <v>1990</v>
       </c>
       <c r="W37" t="s">
+        <v>289</v>
+      </c>
+      <c r="X37" t="s">
         <v>290</v>
-      </c>
-      <c r="X37" t="s">
-        <v>291</v>
       </c>
       <c r="Y37" t="s">
         <v>34</v>
       </c>
       <c r="Z37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>293</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>294</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>253</v>
+      </c>
+      <c r="E38" t="s">
         <v>295</v>
-      </c>
-      <c r="D38" t="s">
-        <v>254</v>
-      </c>
-      <c r="E38" t="s">
-        <v>296</v>
       </c>
       <c r="F38">
         <v>4.1661299999999998E-4</v>
@@ -14092,7 +14288,7 @@
         <v>1</v>
       </c>
       <c r="T38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U38">
         <v>1998</v>
@@ -14101,33 +14297,33 @@
         <v>1990</v>
       </c>
       <c r="W38" t="s">
+        <v>296</v>
+      </c>
+      <c r="X38" t="s">
         <v>297</v>
-      </c>
-      <c r="X38" t="s">
-        <v>298</v>
       </c>
       <c r="Y38" t="s">
         <v>34</v>
       </c>
       <c r="Z38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>300</v>
-      </c>
       <c r="B39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" t="s">
+        <v>274</v>
+      </c>
+      <c r="D39" t="s">
+        <v>260</v>
+      </c>
+      <c r="E39" t="s">
         <v>275</v>
-      </c>
-      <c r="C39" t="s">
-        <v>275</v>
-      </c>
-      <c r="D39" t="s">
-        <v>261</v>
-      </c>
-      <c r="E39" t="s">
-        <v>276</v>
       </c>
       <c r="F39">
         <v>2.9786599999999998E-4</v>
@@ -14181,33 +14377,33 @@
         <v>1990</v>
       </c>
       <c r="W39" t="s">
+        <v>300</v>
+      </c>
+      <c r="X39" t="s">
         <v>301</v>
-      </c>
-      <c r="X39" t="s">
-        <v>302</v>
       </c>
       <c r="Y39" t="s">
         <v>34</v>
       </c>
       <c r="Z39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>304</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>305</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>306</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>307</v>
-      </c>
-      <c r="E40" t="s">
-        <v>308</v>
       </c>
       <c r="F40">
         <v>4.59266E-4</v>
@@ -14252,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U40">
         <v>1993</v>
@@ -14261,33 +14457,33 @@
         <v>1990</v>
       </c>
       <c r="W40" t="s">
+        <v>308</v>
+      </c>
+      <c r="X40" t="s">
         <v>309</v>
-      </c>
-      <c r="X40" t="s">
-        <v>310</v>
       </c>
       <c r="Y40" t="s">
         <v>34</v>
       </c>
       <c r="Z40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>312</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>313</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" t="s">
         <v>314</v>
-      </c>
-      <c r="D41" t="s">
-        <v>261</v>
-      </c>
-      <c r="E41" t="s">
-        <v>315</v>
       </c>
       <c r="F41">
         <v>3.1042599999999999E-4</v>
@@ -14332,7 +14528,7 @@
         <v>1</v>
       </c>
       <c r="T41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U41">
         <v>1999</v>
@@ -14341,33 +14537,33 @@
         <v>1990</v>
       </c>
       <c r="W41" t="s">
+        <v>315</v>
+      </c>
+      <c r="X41" t="s">
         <v>316</v>
-      </c>
-      <c r="X41" t="s">
-        <v>317</v>
       </c>
       <c r="Y41" t="s">
         <v>34</v>
       </c>
       <c r="Z41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>350</v>
+      </c>
+      <c r="B42" t="s">
         <v>351</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>352</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>338</v>
+      </c>
+      <c r="E42" t="s">
         <v>353</v>
-      </c>
-      <c r="D42" t="s">
-        <v>339</v>
-      </c>
-      <c r="E42" t="s">
-        <v>354</v>
       </c>
       <c r="F42">
         <v>3.2122500000000002E-4</v>
@@ -14412,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="T42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U42">
         <v>2007</v>
@@ -14421,33 +14617,33 @@
         <v>2000</v>
       </c>
       <c r="W42" t="s">
+        <v>354</v>
+      </c>
+      <c r="X42" t="s">
         <v>355</v>
-      </c>
-      <c r="X42" t="s">
-        <v>356</v>
       </c>
       <c r="Y42" t="s">
         <v>34</v>
       </c>
       <c r="Z42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43" t="s">
         <v>327</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>328</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>329</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>330</v>
-      </c>
-      <c r="E43" t="s">
-        <v>331</v>
       </c>
       <c r="F43">
         <v>3.3358299999999998E-4</v>
@@ -14492,7 +14688,7 @@
         <v>1</v>
       </c>
       <c r="T43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U43">
         <v>2008</v>
@@ -14501,33 +14697,33 @@
         <v>2000</v>
       </c>
       <c r="W43" t="s">
+        <v>332</v>
+      </c>
+      <c r="X43" t="s">
         <v>333</v>
-      </c>
-      <c r="X43" t="s">
-        <v>334</v>
       </c>
       <c r="Y43" t="s">
         <v>34</v>
       </c>
       <c r="Z43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>336</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>337</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>338</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>339</v>
-      </c>
-      <c r="E44" t="s">
-        <v>340</v>
       </c>
       <c r="F44">
         <v>3.0368000000000002E-4</v>
@@ -14572,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U44">
         <v>2008</v>
@@ -14581,33 +14777,33 @@
         <v>2000</v>
       </c>
       <c r="W44" t="s">
+        <v>340</v>
+      </c>
+      <c r="X44" t="s">
         <v>341</v>
-      </c>
-      <c r="X44" t="s">
-        <v>342</v>
       </c>
       <c r="Y44" t="s">
         <v>34</v>
       </c>
       <c r="Z44" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>344</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>345</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>338</v>
+      </c>
+      <c r="E45" t="s">
         <v>346</v>
-      </c>
-      <c r="D45" t="s">
-        <v>339</v>
-      </c>
-      <c r="E45" t="s">
-        <v>347</v>
       </c>
       <c r="F45">
         <v>2.9982700000000001E-4</v>
@@ -14652,7 +14848,7 @@
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U45">
         <v>2009</v>
@@ -14661,33 +14857,33 @@
         <v>2000</v>
       </c>
       <c r="W45" t="s">
+        <v>347</v>
+      </c>
+      <c r="X45" t="s">
         <v>348</v>
-      </c>
-      <c r="X45" t="s">
-        <v>349</v>
       </c>
       <c r="Y45" t="s">
         <v>34</v>
       </c>
       <c r="Z45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>357</v>
+      </c>
+      <c r="B46" t="s">
         <v>358</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>359</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>260</v>
+      </c>
+      <c r="E46" t="s">
         <v>360</v>
-      </c>
-      <c r="D46" t="s">
-        <v>261</v>
-      </c>
-      <c r="E46" t="s">
-        <v>361</v>
       </c>
       <c r="F46">
         <v>2.7593099999999998E-4</v>
@@ -14732,7 +14928,7 @@
         <v>1</v>
       </c>
       <c r="T46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U46">
         <v>2006</v>
@@ -14741,33 +14937,33 @@
         <v>2000</v>
       </c>
       <c r="W46" t="s">
+        <v>362</v>
+      </c>
+      <c r="X46" t="s">
         <v>363</v>
-      </c>
-      <c r="X46" t="s">
-        <v>364</v>
       </c>
       <c r="Y46" t="s">
         <v>34</v>
       </c>
       <c r="Z46" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>366</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>367</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>368</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>369</v>
-      </c>
-      <c r="E47" t="s">
-        <v>370</v>
       </c>
       <c r="F47">
         <v>2.8157300000000002E-4</v>
@@ -14812,7 +15008,7 @@
         <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U47">
         <v>2008</v>
@@ -14821,33 +15017,33 @@
         <v>2000</v>
       </c>
       <c r="W47" t="s">
+        <v>370</v>
+      </c>
+      <c r="X47" t="s">
         <v>371</v>
-      </c>
-      <c r="X47" t="s">
-        <v>372</v>
       </c>
       <c r="Y47" t="s">
         <v>34</v>
       </c>
       <c r="Z47" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>374</v>
       </c>
-      <c r="B48" t="s">
-        <v>375</v>
-      </c>
       <c r="C48" t="s">
+        <v>345</v>
+      </c>
+      <c r="D48" t="s">
+        <v>338</v>
+      </c>
+      <c r="E48" t="s">
         <v>346</v>
-      </c>
-      <c r="D48" t="s">
-        <v>339</v>
-      </c>
-      <c r="E48" t="s">
-        <v>347</v>
       </c>
       <c r="F48">
         <v>3.4193299999999999E-4</v>
@@ -14892,7 +15088,7 @@
         <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U48">
         <v>2009</v>
@@ -14901,33 +15097,33 @@
         <v>2000</v>
       </c>
       <c r="W48" t="s">
+        <v>375</v>
+      </c>
+      <c r="X48" t="s">
         <v>376</v>
-      </c>
-      <c r="X48" t="s">
-        <v>377</v>
       </c>
       <c r="Y48" t="s">
         <v>34</v>
       </c>
       <c r="Z48" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>379</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>380</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49" t="s">
         <v>381</v>
-      </c>
-      <c r="D49" t="s">
-        <v>254</v>
-      </c>
-      <c r="E49" t="s">
-        <v>382</v>
       </c>
       <c r="F49">
         <v>2.18836E-4</v>
@@ -14972,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U49">
         <v>2008</v>
@@ -14981,33 +15177,33 @@
         <v>2000</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Y49" t="s">
         <v>34</v>
       </c>
       <c r="Z49" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>318</v>
+      </c>
+      <c r="B50" t="s">
         <v>319</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>320</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>253</v>
+      </c>
+      <c r="E50" t="s">
         <v>321</v>
-      </c>
-      <c r="D50" t="s">
-        <v>254</v>
-      </c>
-      <c r="E50" t="s">
-        <v>322</v>
       </c>
       <c r="F50">
         <v>3.1517300000000003E-4</v>
@@ -15052,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U50">
         <v>2007</v>
@@ -15061,33 +15257,33 @@
         <v>2000</v>
       </c>
       <c r="W50" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="X50" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="X50" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="Y50" t="s">
         <v>34</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>384</v>
+      </c>
+      <c r="B51" t="s">
         <v>385</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>386</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>387</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>388</v>
-      </c>
-      <c r="E51" t="s">
-        <v>389</v>
       </c>
       <c r="F51">
         <v>1.95253E-4</v>
@@ -15132,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="T51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U51">
         <v>2011</v>
@@ -15141,33 +15337,33 @@
         <v>2010</v>
       </c>
       <c r="W51" t="s">
+        <v>390</v>
+      </c>
+      <c r="X51" t="s">
         <v>391</v>
-      </c>
-      <c r="X51" t="s">
-        <v>392</v>
       </c>
       <c r="Y51" t="s">
         <v>34</v>
       </c>
       <c r="Z51" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>394</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>394</v>
+      </c>
+      <c r="D52" t="s">
         <v>395</v>
       </c>
-      <c r="C52" t="s">
-        <v>395</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>396</v>
-      </c>
-      <c r="E52" t="s">
-        <v>397</v>
       </c>
       <c r="F52">
         <v>2.5333300000000001E-4</v>
@@ -15212,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="T52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U52">
         <v>2019</v>
@@ -15221,33 +15417,33 @@
         <v>2010</v>
       </c>
       <c r="W52" t="s">
+        <v>397</v>
+      </c>
+      <c r="X52" t="s">
         <v>398</v>
-      </c>
-      <c r="X52" t="s">
-        <v>399</v>
       </c>
       <c r="Y52" t="s">
         <v>34</v>
       </c>
       <c r="Z52" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>401</v>
       </c>
-      <c r="B53" t="s">
-        <v>402</v>
-      </c>
       <c r="C53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D53" t="s">
         <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F53">
         <v>2.2249999999999999E-4</v>
@@ -15292,7 +15488,7 @@
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U53">
         <v>2019</v>
@@ -15301,33 +15497,33 @@
         <v>2010</v>
       </c>
       <c r="W53" t="s">
+        <v>403</v>
+      </c>
+      <c r="X53" t="s">
         <v>404</v>
-      </c>
-      <c r="X53" t="s">
-        <v>405</v>
       </c>
       <c r="Y53" t="s">
         <v>34</v>
       </c>
       <c r="Z53" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>407</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>408</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>338</v>
+      </c>
+      <c r="E54" t="s">
         <v>409</v>
-      </c>
-      <c r="D54" t="s">
-        <v>339</v>
-      </c>
-      <c r="E54" t="s">
-        <v>410</v>
       </c>
       <c r="F54">
         <v>2.2345899999999999E-4</v>
@@ -15372,7 +15568,7 @@
         <v>1</v>
       </c>
       <c r="T54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U54">
         <v>2013</v>
@@ -15381,33 +15577,33 @@
         <v>2010</v>
       </c>
       <c r="W54" t="s">
+        <v>410</v>
+      </c>
+      <c r="X54" t="s">
         <v>411</v>
-      </c>
-      <c r="X54" t="s">
-        <v>412</v>
       </c>
       <c r="Y54" t="s">
         <v>34</v>
       </c>
       <c r="Z54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
         <v>414</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>415</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>253</v>
+      </c>
+      <c r="E55" t="s">
         <v>416</v>
-      </c>
-      <c r="D55" t="s">
-        <v>254</v>
-      </c>
-      <c r="E55" t="s">
-        <v>417</v>
       </c>
       <c r="F55">
         <v>3.4105399999999998E-4</v>
@@ -15452,7 +15648,7 @@
         <v>1</v>
       </c>
       <c r="T55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U55">
         <v>2015</v>
@@ -15461,33 +15657,33 @@
         <v>2010</v>
       </c>
       <c r="W55" t="s">
+        <v>417</v>
+      </c>
+      <c r="X55" t="s">
         <v>418</v>
-      </c>
-      <c r="X55" t="s">
-        <v>419</v>
       </c>
       <c r="Y55" t="s">
         <v>34</v>
       </c>
       <c r="Z55" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>421</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>422</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>423</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>424</v>
-      </c>
-      <c r="E56" t="s">
-        <v>425</v>
       </c>
       <c r="F56">
         <v>1.83E-4</v>
@@ -15532,7 +15728,7 @@
         <v>1</v>
       </c>
       <c r="T56" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U56">
         <v>2019</v>
@@ -15541,33 +15737,33 @@
         <v>2010</v>
       </c>
       <c r="W56" t="s">
+        <v>425</v>
+      </c>
+      <c r="X56" t="s">
         <v>426</v>
-      </c>
-      <c r="X56" t="s">
-        <v>427</v>
       </c>
       <c r="Y56" t="s">
         <v>34</v>
       </c>
       <c r="Z56" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
         <v>429</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>429</v>
+      </c>
+      <c r="D57" t="s">
         <v>430</v>
       </c>
-      <c r="C57" t="s">
-        <v>430</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>431</v>
-      </c>
-      <c r="E57" t="s">
-        <v>432</v>
       </c>
       <c r="F57">
         <v>2.07309E-4</v>
@@ -15612,7 +15808,7 @@
         <v>1</v>
       </c>
       <c r="T57" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U57">
         <v>2018</v>
@@ -15621,33 +15817,33 @@
         <v>2010</v>
       </c>
       <c r="W57" t="s">
+        <v>433</v>
+      </c>
+      <c r="X57" t="s">
         <v>434</v>
-      </c>
-      <c r="X57" t="s">
-        <v>435</v>
       </c>
       <c r="Y57" t="s">
         <v>34</v>
       </c>
       <c r="Z57" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
         <v>437</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>438</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>338</v>
+      </c>
+      <c r="E58" t="s">
         <v>439</v>
-      </c>
-      <c r="D58" t="s">
-        <v>339</v>
-      </c>
-      <c r="E58" t="s">
-        <v>440</v>
       </c>
       <c r="F58">
         <v>3.1118600000000003E-4</v>
@@ -15692,7 +15888,7 @@
         <v>1</v>
       </c>
       <c r="T58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U58">
         <v>2019</v>
@@ -15701,33 +15897,33 @@
         <v>2010</v>
       </c>
       <c r="W58" t="s">
+        <v>440</v>
+      </c>
+      <c r="X58" t="s">
         <v>441</v>
-      </c>
-      <c r="X58" t="s">
-        <v>442</v>
       </c>
       <c r="Y58" t="s">
         <v>34</v>
       </c>
       <c r="Z58" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>444</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>445</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>338</v>
+      </c>
+      <c r="E59" t="s">
         <v>446</v>
-      </c>
-      <c r="D59" t="s">
-        <v>339</v>
-      </c>
-      <c r="E59" t="s">
-        <v>447</v>
       </c>
       <c r="F59">
         <v>2.8028100000000001E-4</v>
@@ -15772,7 +15968,7 @@
         <v>0</v>
       </c>
       <c r="T59" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U59">
         <v>2019</v>
@@ -15781,33 +15977,33 @@
         <v>2010</v>
       </c>
       <c r="W59" t="s">
+        <v>447</v>
+      </c>
+      <c r="X59" t="s">
         <v>448</v>
-      </c>
-      <c r="X59" t="s">
-        <v>449</v>
       </c>
       <c r="Y59" t="s">
         <v>34</v>
       </c>
       <c r="Z59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
         <v>451</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>452</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>453</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>454</v>
-      </c>
-      <c r="E60" t="s">
-        <v>455</v>
       </c>
       <c r="F60">
         <v>3.2225E-4</v>
@@ -15852,7 +16048,7 @@
         <v>1</v>
       </c>
       <c r="T60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U60">
         <v>2018</v>
@@ -15861,33 +16057,33 @@
         <v>2010</v>
       </c>
       <c r="W60" t="s">
+        <v>455</v>
+      </c>
+      <c r="X60" t="s">
         <v>456</v>
-      </c>
-      <c r="X60" t="s">
-        <v>457</v>
       </c>
       <c r="Y60" t="s">
         <v>34</v>
       </c>
       <c r="Z60" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>459</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>460</v>
-      </c>
-      <c r="C61" t="s">
-        <v>461</v>
       </c>
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F61">
         <v>1.99407E-4</v>
@@ -15932,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="T61" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="U61">
         <v>2022</v>
@@ -15941,33 +16137,33 @@
         <v>2020</v>
       </c>
       <c r="W61" t="s">
+        <v>463</v>
+      </c>
+      <c r="X61" t="s">
         <v>464</v>
-      </c>
-      <c r="X61" t="s">
-        <v>465</v>
       </c>
       <c r="Y61" t="s">
         <v>34</v>
       </c>
       <c r="Z61" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
         <v>467</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>467</v>
+      </c>
+      <c r="D62" t="s">
         <v>468</v>
       </c>
-      <c r="C62" t="s">
-        <v>468</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>469</v>
-      </c>
-      <c r="E62" t="s">
-        <v>470</v>
       </c>
       <c r="F62">
         <v>1.9186799999999999E-4</v>
@@ -16012,7 +16208,7 @@
         <v>1</v>
       </c>
       <c r="T62" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U62">
         <v>2022</v>
@@ -16021,33 +16217,33 @@
         <v>2020</v>
       </c>
       <c r="W62" t="s">
+        <v>470</v>
+      </c>
+      <c r="X62" t="s">
         <v>471</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>472</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>473</v>
       </c>
-      <c r="Z62" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
         <v>474</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>474</v>
+      </c>
+      <c r="D63" t="s">
         <v>475</v>
       </c>
-      <c r="C63" t="s">
-        <v>475</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>476</v>
-      </c>
-      <c r="E63" t="s">
-        <v>477</v>
       </c>
       <c r="F63">
         <v>2.3148600000000001E-4</v>
@@ -16092,7 +16288,7 @@
         <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U63">
         <v>2020</v>
@@ -16101,33 +16297,33 @@
         <v>2020</v>
       </c>
       <c r="W63" t="s">
+        <v>477</v>
+      </c>
+      <c r="X63" t="s">
         <v>478</v>
-      </c>
-      <c r="X63" t="s">
-        <v>479</v>
       </c>
       <c r="Y63" t="s">
         <v>34</v>
       </c>
       <c r="Z63" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
         <v>481</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>481</v>
+      </c>
+      <c r="D64" t="s">
+        <v>338</v>
+      </c>
+      <c r="E64" t="s">
         <v>482</v>
-      </c>
-      <c r="C64" t="s">
-        <v>482</v>
-      </c>
-      <c r="D64" t="s">
-        <v>339</v>
-      </c>
-      <c r="E64" t="s">
-        <v>483</v>
       </c>
       <c r="F64">
         <v>4.4700000000000002E-5</v>
@@ -16172,7 +16368,7 @@
         <v>1</v>
       </c>
       <c r="T64" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="U64">
         <v>2022</v>
@@ -16181,33 +16377,33 @@
         <v>2020</v>
       </c>
       <c r="W64" t="s">
+        <v>483</v>
+      </c>
+      <c r="X64" t="s">
         <v>484</v>
-      </c>
-      <c r="X64" t="s">
-        <v>485</v>
       </c>
       <c r="Y64" t="s">
         <v>34</v>
       </c>
       <c r="Z64" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
         <v>487</v>
       </c>
-      <c r="B65" t="s">
-        <v>488</v>
-      </c>
       <c r="C65" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D65" t="s">
         <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F65">
         <v>2.28855E-4</v>
@@ -16252,7 +16448,7 @@
         <v>1</v>
       </c>
       <c r="T65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="U65">
         <v>2021</v>
@@ -16261,33 +16457,33 @@
         <v>2020</v>
       </c>
       <c r="W65" t="s">
+        <v>489</v>
+      </c>
+      <c r="X65" t="s">
         <v>490</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>491</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>492</v>
       </c>
-      <c r="Z65" t="s">
+    </row>
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
         <v>494</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>494</v>
+      </c>
+      <c r="D66" t="s">
+        <v>423</v>
+      </c>
+      <c r="E66" t="s">
         <v>495</v>
-      </c>
-      <c r="C66" t="s">
-        <v>495</v>
-      </c>
-      <c r="D66" t="s">
-        <v>424</v>
-      </c>
-      <c r="E66" t="s">
-        <v>496</v>
       </c>
       <c r="F66">
         <v>2.30292E-4</v>
@@ -16332,7 +16528,7 @@
         <v>1</v>
       </c>
       <c r="T66" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="U66">
         <v>2021</v>
@@ -16341,33 +16537,33 @@
         <v>2020</v>
       </c>
       <c r="W66" t="s">
+        <v>496</v>
+      </c>
+      <c r="X66" t="s">
         <v>497</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z66" t="s">
         <v>498</v>
       </c>
-      <c r="Y66" t="s">
-        <v>492</v>
-      </c>
-      <c r="Z66" t="s">
+    </row>
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
         <v>500</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>501</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>502</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>503</v>
-      </c>
-      <c r="E67" t="s">
-        <v>504</v>
       </c>
       <c r="F67">
         <v>2.7E-4</v>
@@ -16412,7 +16608,7 @@
         <v>1</v>
       </c>
       <c r="T67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U67">
         <v>2020</v>
@@ -16421,33 +16617,33 @@
         <v>2020</v>
       </c>
       <c r="W67" t="s">
+        <v>504</v>
+      </c>
+      <c r="X67" t="s">
         <v>505</v>
-      </c>
-      <c r="X67" t="s">
-        <v>506</v>
       </c>
       <c r="Y67" t="s">
         <v>34</v>
       </c>
       <c r="Z67" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
         <v>508</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
+        <v>508</v>
+      </c>
+      <c r="D68" t="s">
         <v>509</v>
       </c>
-      <c r="C68" t="s">
-        <v>509</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>510</v>
-      </c>
-      <c r="E68" t="s">
-        <v>511</v>
       </c>
       <c r="F68">
         <v>1.0326400000000001E-4</v>
@@ -16492,7 +16688,7 @@
         <v>1</v>
       </c>
       <c r="T68" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="U68">
         <v>2020</v>
@@ -16501,33 +16697,33 @@
         <v>2020</v>
       </c>
       <c r="W68" t="s">
+        <v>511</v>
+      </c>
+      <c r="X68" t="s">
         <v>512</v>
-      </c>
-      <c r="X68" t="s">
-        <v>513</v>
       </c>
       <c r="Y68" t="s">
         <v>34</v>
       </c>
       <c r="Z68" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
         <v>515</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>516</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>517</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>518</v>
-      </c>
-      <c r="E69" t="s">
-        <v>519</v>
       </c>
       <c r="F69">
         <v>2.3810300000000001E-4</v>
@@ -16572,7 +16768,7 @@
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="U69">
         <v>2022</v>
@@ -16581,33 +16777,33 @@
         <v>2020</v>
       </c>
       <c r="W69" t="s">
+        <v>519</v>
+      </c>
+      <c r="X69" t="s">
         <v>520</v>
-      </c>
-      <c r="X69" t="s">
-        <v>521</v>
       </c>
       <c r="Y69" t="s">
         <v>34</v>
       </c>
       <c r="Z69" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>523</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>523</v>
+      </c>
+      <c r="D70" t="s">
+        <v>338</v>
+      </c>
+      <c r="E70" t="s">
         <v>524</v>
-      </c>
-      <c r="C70" t="s">
-        <v>524</v>
-      </c>
-      <c r="D70" t="s">
-        <v>339</v>
-      </c>
-      <c r="E70" t="s">
-        <v>525</v>
       </c>
       <c r="F70">
         <v>2.11666E-4</v>
@@ -16652,7 +16848,7 @@
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="U70">
         <v>2022</v>
@@ -16661,33 +16857,33 @@
         <v>2020</v>
       </c>
       <c r="W70" t="s">
+        <v>525</v>
+      </c>
+      <c r="X70" t="s">
         <v>526</v>
-      </c>
-      <c r="X70" t="s">
-        <v>527</v>
       </c>
       <c r="Y70" t="s">
         <v>34</v>
       </c>
       <c r="Z70" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>529</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>530</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>329</v>
+      </c>
+      <c r="E71" t="s">
         <v>531</v>
-      </c>
-      <c r="D71" t="s">
-        <v>330</v>
-      </c>
-      <c r="E71" t="s">
-        <v>532</v>
       </c>
       <c r="F71" s="2">
         <v>2.41668E-4</v>
@@ -16732,7 +16928,7 @@
         <v>1</v>
       </c>
       <c r="T71" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U71" s="2">
         <v>2007</v>
@@ -16741,16 +16937,16 @@
         <v>2000</v>
       </c>
       <c r="W71" t="s">
+        <v>382</v>
+      </c>
+      <c r="X71" t="s">
         <v>383</v>
-      </c>
-      <c r="X71" t="s">
-        <v>384</v>
       </c>
       <c r="Y71" t="s">
         <v>34</v>
       </c>
       <c r="Z71" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/data/top_decade_songs_translated.xlsx
+++ b/data/top_decade_songs_translated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3718bcc9183a9f2/Documents/GitHub/sicss-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{0EE6B143-13C4-4A9B-89CB-68319EC2EF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50AED61A-A475-4169-B258-A7713347EEBF}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{0EE6B143-13C4-4A9B-89CB-68319EC2EF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{749A9926-CAC6-4CDE-9102-2BE6A5ACD9FC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="539">
   <si>
     <t>track_id</t>
   </si>
@@ -8804,285 +8804,6 @@
 This distance is currently...</t>
   </si>
   <si>
-    <t>5QtQFSdyZEl0w4iDxAyv76</t>
-  </si>
-  <si>
-    <t>Namo Namo</t>
-  </si>
-  <si>
-    <t>Kedarnath</t>
-  </si>
-  <si>
-    <t>Amit Trivedi</t>
-  </si>
-  <si>
-    <t>11/27/2018</t>
-  </si>
-  <si>
-    <t>जय हो जय हो शंकरा
-भोलेनाथ शंकरा
-आदि देव शंकरा
-हे शिवाय शंकरा
-तेरे जाप के बिना
-भोलेनाथ शंकरा
-चले ये साँस किस तरह
-हे शिवाय शंकरा
-मेरा कर्म तू ही जाने
-क्या बुरा है क्या भला
-तेरे रास्ते पे मैं तो
-आँख मूँद के चला
-तेरे नाम की, जोत ने
-सारा हर लिया तमस मेरा
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-जय त्रिलोकनाथ शम्भू
-हे शिवाय शंकरा
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-रुद्रदेव हे महेश्वरा
-(संगीत)
-सृष्टि के जनम से भी
-पहले तेरा वास था
-ये जग रहे या ना रहे
-रहेगी तेरी आस्था
-क्या समय, क्या प्रलय
-दोनों में तेरी महानता
-महानता, महानता
-सीपियों की ओट में
-भोलेनाथ शंकरा
-मोतियाँ हो जिस तरह
-हे शिवाय शंकरा
-मेरे मन में शंकरा
-भोलेनाथ शंकरा
-तू बसा है उस तरह
-हे शिवाय शंकरा
-मुझे भरम था जो है मेरा
-था कभी नहीं मेरा
-अर्थ क्या निरर्थ क्या
-जो भी है सभी तेरा
-तेरे सामने, है झुका
-मेरे सर पे हाथ रख तेरा
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-जय त्रिलोकनाथ शम्भू
-हे शिवाय शंकरा
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-रुद्रदेव हे महेश्वरा
-(संगीत)
-चन्द्रमा ललाट पे
-भस्म है भुजाओं में
-वस्त्र बाघ छाल का
-है खड़ाऊ पाँव में
-प्यास क्या, और तुझे
-गंगा है तेरी जटाओं में
-जटाओं में, जटाओं में
-दूसरों के वास्ते
-भोलेनाथ शंकरा
-तू सदैव ही जिया
-हे शिवाय शंकरा
-माँगा कुछ कभी नहीं
-भोलेनाथ शंकरा
-तूने सिर्फ है दिया
-हे शिवाय शंकरा
-समुद्र मंथन का
-था समय जो आ पड़ा
-द्वंद दोनों लोक में
-विशामृत पे था छिड़ा
-अमृत सभी में बाँट के
-प्याला विष का तूने खुद पिया
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-जय त्रिलोकनाथ शम्भू
-हे शिवाय शंकरा
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-रुद्रदेव हे महेश्वरा
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-जय त्रिलोकनाथ शम्भू
-हे शिवाय शंकरा
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-रुद्रदेव हे महेश्वरा
-रुद्रदेव हे महेश्वरा
-रुद्रदेव हे महेश्वरा</t>
-  </si>
-  <si>
-    <t>Jai ho jai ho Shankara
-(Bholenath Shankara)
-Aadi dev Shankara
-(Hey Shivay Shankara)
-Tere jaap ke bina
-(Bholenath Shankara)
-Chale ye saans kis tarah
-(Hey Shivay Shankara)
-Mera karm tu hi jaane
-Kya bura hai kya bhalaa…
-Tere raaste pe main toh
-Aankh moond ke chalaa…
-Tere naam ki jot ne
-Saara har liya tamas mera
-(tamas: darkness)
-Namo namo ji Shankara
-Bholenath Shankara
-Hey Triloknath Shambhu
-Hey Shivay Shankara
-Namo Namo ji Shankara
-Bholenath Shankara
-Rudradev hey Maheshvarah
-Srishti ke janam se bhi
-(O o…)
-Pehle tera vaas tha
-(O o…)
-Ye jag rahe ya naa rahe
-(O o…)
-Rahegi teri aastha
-(O o…)
-Kya samay… kya pralay
-Dono mein teri mahaanta
-Mahaanta… mahaanta…
-Seepiyon ki ontt main
-(Bholenath Shankara)
-Motiyaan ho jis tarah
-(Hey Shivay Shankara)
-Mere mann mein Shankara
-(Bholenath Shankara)
-Tu basa hai uss tarah
-(Hey Shivay Shankara)
-Mujhe bharam tha jo hai mera
-Tha nahin kabhi mera…
-Arth kya nirarth kya
-Jo bhi hai sabhi tera…
-Tere saamne hai jhuka
-Mere sar pe haath rakh tera
-Namo Namo ji Shankara
-Bholenath Shankara
-Hey Triloknath Shambhu
-Hey Shivay Shankara
-Namo namo ji Shankara
-Bholenath Shankara
-Rudradev hey Maheshvara
-Chandrama lalaat pe (O o…)
-Bhasm hai bhujaaon mein (O o…)
-Vastra baagh chhaal ka (O o…)
-Hai khadau paanv mein (O o…)
-Pyaas kya ho tujhe
-Ganga hai teri jataaon mein
-Jataaon mein… Jataaon mein…
-Doosron ke waaste
-(Bholenath Shankara)
-Tu sadaiv hai jiya
-(Hey Shivay Shankara)
-Maanga kuch kabhi nahi
-(Bholenath Shankara)
-Tune sirf hai diya
-(Hey Shivay Shankara)
-Samudra manthan ka tha samay jo aa pada
-Dwand dono lok me vish-amrit pe tha chhida
-Amrit sabhi main baant ke
-Pyala vish ka tune khud piya
-Namo Namo ji Shankara
-Bholenath Shankara
-Hey Triloknath Shambhu
-Hey Shivay Shankara
-Namo namo ji Shankara
-Bholenath Shankara
-Rudradev hey Maheshvara
-Rudradev hey Maheshvara
-Rudradev hey Maheshvara</t>
-  </si>
-  <si>
-    <t>Jai Ho Jai Ho Shankara
-Bholenath Shankara
-Adi Dev Shankara
-This is also Shankara
-without your chanting.
-Bholenath Shankara
-How do you breathe this way?
-This is also Shankara
-You know my work.
-What's bad, what's good
-I am on your way.
-The eyes moved with a blind eye
-Of your name, the holding
-Sarah took every tamas mine
-Namo Namo Ji Shankara
-Bholenath Shankara
-Jai Triloknath Shambhu
-This is also Shankara
-Namo Namo Ji Shankara
-Bholenath Shankara
-Rudradev O Maheshwara
-(music)
-Even from the birth of creation
-It was your abode before.
-Whether they are awake or not
-Your faith will remain
-What time, what doomsday?
-Your greatness in both.
-Greatness, greatness
-In the oat of oysters
-Bholenath Shankara
-The way beads are
-This is also Shankara
-Shankara in my mind
-Bholenath Shankara
-You're settled like that.
-This is also Shankara
-I had the illusion that is mine.
-It was never mine.
-What does the meaning mean?
-Whatever it is all yours.
-In front of you, it's bent.
-Put your hand on my head.
-Namo Namo Ji Shankara
-Bholenath Shankara
-Jai Triloknath Shambhu
-This is also Shankara
-Namo Namo Ji Shankara
-Bholenath Shankara
-Rudradev O Maheshwara
-(music)
-Moon on the front
-Consumed in the arms
-cloth of tiger bark
-is in the standing feet
-What is thirsty for you, and you
-The Ganges is in your jathas
-In jatas, in jatas
-for the sake of others
-Bholenath Shankara
-You have lived forever
-This is also Shankara
-I've never asked for anything.
-Bholenath Shankara
-You've just given
-This is also Shankara
-sea churning
-The time that came
-Conflict in both peoples
-Vishamrit Pe Tha Was Sparked
-Nectar divided among all
-You drank the cup of poison yourself.
-Namo Namo Ji Shankara
-Bholenath Shankara
-Jai Triloknath Shambhu
-This is also Shankara
-Namo Namo Ji Shankara
-Bholenath Shankara
-Rudradev O Maheshwara
-Namo Namo Ji Shankara
-Bholenath Shankara
-Jai Triloknath Shambhu
-This is also Shankara
-Namo Namo Ji Shankara
-Bholenath Shankara
-Rudradev O Maheshwara
-Rudradev O Maheshwara
-Rudradev O Maheshwara</t>
-  </si>
-  <si>
     <t>5WzfGg2ueNoOS5aIkaR9qX</t>
   </si>
   <si>
@@ -10889,6 +10610,108 @@
 Mallika, you are the king
 Mallika, you are the king
 Aaja na ru baru.</t>
+  </si>
+  <si>
+    <t>5w0Xpt2YHT2Y3z3e4UUJP7</t>
+  </si>
+  <si>
+    <t>Kaise Hua</t>
+  </si>
+  <si>
+    <t>Kabir Singh</t>
+  </si>
+  <si>
+    <t>6/14/2019</t>
+  </si>
+  <si>
+    <t>Hansta rehta hu tujhse mil kar kyu aajkal
+Badle badle hain mere tevar kyun aajkal
+Aankhein meri har jagah
+Dhoondhe tujhe bewajah
+Ye main hoon ya koi aur hai meri tarah
+Kaise hua, kaise hua
+Tu itna zaroori kaise hua
+Kaise hua, kaise hua
+Tu itna zaroori kaise hua
+Main baarish ki boli samajhta nahi tha
+Hawaaon se main yun ulajhta nahi tha
+Hai seene mein dil bhi
+Kahaan thi mujhe ye khabar
+Kahin pe hon raatein
+Kahin pe savere
+Awaargi hi rahi saath mere
+Thehar ja, thehar ja
+Ye kehti hai teri nazar
+Kya haal ho gaya hai ye mera
+Aankhein meri har jagah
+Dhoondhe tujhe bewajah
+Ye main hoon ya koi aur hai meri tarah
+Kaise hua, kaise hua
+Tu itna zaroori kaise hua
+Kaise hua, kaise hua
+Tu itna zaroori kaise hua
+Kaise hua, kaise hua
+Tu itna zaroori kaise hua
+hmm mmm…</t>
+  </si>
+  <si>
+    <t>हंसता रहता हूँ तुझसे मिल कर क्यूँ आजकल
+बदले बदले हैं मेरे तेवर क्यूँ आजकल
+आँखें मेरी हर जगह
+ढूंढ़ें तुझे बेवजह
+ये मैं हूँ या कोई और है मेरी तरह
+कैसे हुआ, कैसे हुआ
+तू इतना ज़रूरी कैसे हुआ
+कैसे हुआ, कैसे हुआ
+तू इतना ज़रूरी कैसे हुआ
+मैं बारिश की बोली समझता नहीं था
+हवाओं से मैं यूँ उलझता नहीं था
+है सीने में दिल भी
+कहाँ थी मुझे ये ख़बर
+कहीं पे हों रातें
+कहीं पे सवेरे
+आवारगी ही रही साथ मेरे
+ठहर जा, ठहर जा
+ये कहती है तेरी नज़र
+क्या हाल हो गया है ये मेरा
+आँखें मेरी हर जगह
+ढूंढ़ें तुझे बेवजह
+ये मैं हूँ या कोई और है मेरी तरह
+कैसे हुआ, कैसे हुआ
+तू इतना ज़रूरी कैसे हुआ
+कैसे हुआ, कैसे हुआ
+तू इतना ज़रूरी कैसे हुआ
+कैसे हुआ, कैसे हुआ
+तू इतना ज़रूरी कैसे हुआ</t>
+  </si>
+  <si>
+    <t>I keep on laughing why meet you nowadays
+Why have my attitudes changed nowadays?
+my eyes everywhere
+find you unnecessarily
+is it me or is there someone else like me
+how did it happen, how did it happen
+how did you become so important
+how did it happen, how did it happen
+how did you become so important
+I didn't understand the words of rain
+I was never confused by the wind
+heart in chest
+where was this news to me where are the nights
+somewhere in the morning
+loafing with me
+stay, stay
+it says your eyes
+what's wrong with me
+my eyes everywhere
+find you unnecessarily
+is it me or is there someone else like me
+how did it happen, how did it happen
+how did you become so important
+how did it happen, how did it happen
+how did you become so important
+how did it happen, how did it happen
+how did you become so important</t>
   </si>
 </sst>
 </file>
@@ -11255,12 +11078,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X1" sqref="X1"/>
+      <selection pane="topRight" activeCell="Z60" sqref="Z60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11349,7 +11171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -11429,7 +11251,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -11509,7 +11331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -11589,7 +11411,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -11669,7 +11491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -11749,7 +11571,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -11829,7 +11651,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -11909,7 +11731,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -11989,7 +11811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -12069,7 +11891,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -12149,7 +11971,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -12229,7 +12051,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -12309,7 +12131,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -12389,7 +12211,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -12469,7 +12291,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -12549,7 +12371,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -12629,7 +12451,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -12709,7 +12531,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -12789,7 +12611,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -12869,7 +12691,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>172</v>
       </c>
@@ -12949,7 +12771,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -13029,7 +12851,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -13109,7 +12931,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>192</v>
       </c>
@@ -13189,7 +13011,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>200</v>
       </c>
@@ -13269,7 +13091,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>209</v>
       </c>
@@ -13349,7 +13171,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>216</v>
       </c>
@@ -13429,7 +13251,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>224</v>
       </c>
@@ -13586,10 +13408,10 @@
         <v>34</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>236</v>
       </c>
@@ -13669,7 +13491,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>244</v>
       </c>
@@ -13751,55 +13573,55 @@
     </row>
     <row r="32" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C32" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D32" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E32" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F32">
-        <v>3.2001300000000001E-4</v>
+        <v>2.9139999999999998E-4</v>
       </c>
       <c r="G32">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H32">
         <v>5</v>
       </c>
       <c r="I32">
-        <v>0.42499999999999999</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="J32">
-        <v>0.64</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="K32">
-        <v>0.29499999999999998</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="L32">
-        <v>2.0499999999999999E-6</v>
+        <v>2.0400000000000001E-5</v>
       </c>
       <c r="M32">
-        <v>8.0399999999999999E-2</v>
+        <v>7.9899999999999999E-2</v>
       </c>
       <c r="N32">
-        <v>-16.356999999999999</v>
+        <v>-14.308999999999999</v>
       </c>
       <c r="O32">
-        <v>3.9699999999999999E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="P32">
-        <v>121.90300000000001</v>
+        <v>151.98599999999999</v>
       </c>
       <c r="Q32">
-        <v>0.107</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="R32">
         <v>4</v>
@@ -13811,75 +13633,75 @@
         <v>246</v>
       </c>
       <c r="U32">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="V32">
         <v>1990</v>
       </c>
       <c r="W32" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="X32" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Y32" t="s">
         <v>34</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D33" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E33" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F33">
-        <v>2.9139999999999998E-4</v>
+        <v>3.2001300000000001E-4</v>
       </c>
       <c r="G33">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H33">
         <v>5</v>
       </c>
       <c r="I33">
-        <v>0.77500000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J33">
-        <v>0.45800000000000002</v>
+        <v>0.64</v>
       </c>
       <c r="K33">
-        <v>0.33900000000000002</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="L33">
-        <v>2.0400000000000001E-5</v>
+        <v>2.0499999999999999E-6</v>
       </c>
       <c r="M33">
-        <v>7.9899999999999999E-2</v>
+        <v>8.0399999999999999E-2</v>
       </c>
       <c r="N33">
-        <v>-14.308999999999999</v>
+        <v>-16.356999999999999</v>
       </c>
       <c r="O33">
-        <v>3.3300000000000003E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="P33">
-        <v>151.98599999999999</v>
+        <v>121.90300000000001</v>
       </c>
       <c r="Q33">
-        <v>0.52900000000000003</v>
+        <v>0.107</v>
       </c>
       <c r="R33">
         <v>4</v>
@@ -13891,25 +13713,25 @@
         <v>246</v>
       </c>
       <c r="U33">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="V33">
         <v>1990</v>
       </c>
       <c r="W33" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="X33" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="Y33" t="s">
         <v>34</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>264</v>
       </c>
@@ -13989,7 +13811,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>272</v>
       </c>
@@ -14069,7 +13891,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>279</v>
       </c>
@@ -14149,7 +13971,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>285</v>
       </c>
@@ -14229,7 +14051,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>292</v>
       </c>
@@ -14309,7 +14131,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>299</v>
       </c>
@@ -14389,7 +14211,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>303</v>
       </c>
@@ -14469,7 +14291,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>311</v>
       </c>
@@ -14549,7 +14371,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>350</v>
       </c>
@@ -14629,7 +14451,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>326</v>
       </c>
@@ -14709,7 +14531,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>335</v>
       </c>
@@ -14789,7 +14611,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>343</v>
       </c>
@@ -14869,7 +14691,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>357</v>
       </c>
@@ -14949,7 +14771,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>365</v>
       </c>
@@ -15029,7 +14851,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>373</v>
       </c>
@@ -15109,7 +14931,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>378</v>
       </c>
@@ -15177,19 +14999,19 @@
         <v>2000</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="Y49" t="s">
         <v>34</v>
       </c>
       <c r="Z49" s="3" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>318</v>
       </c>
@@ -15269,7 +15091,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>384</v>
       </c>
@@ -15349,7 +15171,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>393</v>
       </c>
@@ -15429,7 +15251,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>400</v>
       </c>
@@ -15509,7 +15331,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>406</v>
       </c>
@@ -15589,7 +15411,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>413</v>
       </c>
@@ -15669,7 +15491,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>420</v>
       </c>
@@ -15749,7 +15571,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>428</v>
       </c>
@@ -15829,7 +15651,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>436</v>
       </c>
@@ -15909,7 +15731,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>443</v>
       </c>
@@ -15989,57 +15811,57 @@
         <v>449</v>
       </c>
     </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="B60" t="s">
-        <v>451</v>
+        <v>533</v>
       </c>
       <c r="C60" t="s">
-        <v>452</v>
+        <v>534</v>
       </c>
       <c r="D60" t="s">
-        <v>453</v>
+        <v>126</v>
       </c>
       <c r="E60" t="s">
-        <v>454</v>
+        <v>535</v>
       </c>
       <c r="F60">
-        <v>3.2225E-4</v>
+        <v>2.34721999999999E-4</v>
       </c>
       <c r="G60">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0.436</v>
+        <v>0.442</v>
       </c>
       <c r="J60">
-        <v>0.64800000000000002</v>
+        <v>0.37</v>
       </c>
       <c r="K60">
-        <v>0.71099999999999997</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.121</v>
+        <v>0.109</v>
       </c>
       <c r="N60">
-        <v>-6.2160000000000002</v>
+        <v>-6.9729999999999999</v>
       </c>
       <c r="O60">
-        <v>3.04E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="P60">
-        <v>119.935</v>
+        <v>137.79599999999999</v>
       </c>
       <c r="Q60">
-        <v>0.33</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="R60">
         <v>4</v>
@@ -16051,39 +15873,39 @@
         <v>389</v>
       </c>
       <c r="U60">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="V60">
         <v>2010</v>
       </c>
-      <c r="W60" t="s">
-        <v>455</v>
-      </c>
-      <c r="X60" t="s">
-        <v>456</v>
+      <c r="W60" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="Y60" t="s">
         <v>34</v>
       </c>
-      <c r="Z60" t="s">
-        <v>457</v>
+      <c r="Z60" s="3" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B61" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C61" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F61">
         <v>1.99407E-4</v>
@@ -16128,7 +15950,7 @@
         <v>1</v>
       </c>
       <c r="T61" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="U61">
         <v>2022</v>
@@ -16137,33 +15959,33 @@
         <v>2020</v>
       </c>
       <c r="W61" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="X61" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="Y61" t="s">
         <v>34</v>
       </c>
       <c r="Z61" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B62" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C62" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D62" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E62" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F62">
         <v>1.9186799999999999E-4</v>
@@ -16217,33 +16039,33 @@
         <v>2020</v>
       </c>
       <c r="W62" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="X62" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="Y62" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="Z62" s="3" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B63" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C63" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D63" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E63" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F63">
         <v>2.3148600000000001E-4</v>
@@ -16297,33 +16119,33 @@
         <v>2020</v>
       </c>
       <c r="W63" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="X63" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="Y63" t="s">
         <v>34</v>
       </c>
       <c r="Z63" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
-    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B64" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C64" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D64" t="s">
         <v>338</v>
       </c>
       <c r="E64" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F64">
         <v>4.4700000000000002E-5</v>
@@ -16368,7 +16190,7 @@
         <v>1</v>
       </c>
       <c r="T64" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="U64">
         <v>2022</v>
@@ -16377,33 +16199,33 @@
         <v>2020</v>
       </c>
       <c r="W64" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="X64" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="Y64" t="s">
         <v>34</v>
       </c>
       <c r="Z64" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B65" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C65" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D65" t="s">
         <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F65">
         <v>2.28855E-4</v>
@@ -16448,7 +16270,7 @@
         <v>1</v>
       </c>
       <c r="T65" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="U65">
         <v>2021</v>
@@ -16457,33 +16279,33 @@
         <v>2020</v>
       </c>
       <c r="W65" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="X65" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="Y65" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="Z65" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
-    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B66" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C66" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D66" t="s">
         <v>423</v>
       </c>
       <c r="E66" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F66">
         <v>2.30292E-4</v>
@@ -16528,7 +16350,7 @@
         <v>1</v>
       </c>
       <c r="T66" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="U66">
         <v>2021</v>
@@ -16537,33 +16359,33 @@
         <v>2020</v>
       </c>
       <c r="W66" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="X66" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="Y66" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>491</v>
       </c>
-      <c r="Z66" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>499</v>
-      </c>
       <c r="B67" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C67" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D67" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E67" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F67">
         <v>2.7E-4</v>
@@ -16617,33 +16439,33 @@
         <v>2020</v>
       </c>
       <c r="W67" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="X67" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="Y67" t="s">
         <v>34</v>
       </c>
       <c r="Z67" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
-    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B68" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C68" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D68" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="E68" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F68">
         <v>1.0326400000000001E-4</v>
@@ -16688,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="T68" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="U68">
         <v>2020</v>
@@ -16697,33 +16519,33 @@
         <v>2020</v>
       </c>
       <c r="W68" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="X68" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="Y68" t="s">
         <v>34</v>
       </c>
       <c r="Z68" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
-    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B69" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C69" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D69" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E69" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F69">
         <v>2.3810300000000001E-4</v>
@@ -16768,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="U69">
         <v>2022</v>
@@ -16777,33 +16599,33 @@
         <v>2020</v>
       </c>
       <c r="W69" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="X69" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="Y69" t="s">
         <v>34</v>
       </c>
       <c r="Z69" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B70" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C70" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D70" t="s">
         <v>338</v>
       </c>
       <c r="E70" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F70">
         <v>2.11666E-4</v>
@@ -16848,7 +16670,7 @@
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="U70">
         <v>2022</v>
@@ -16857,33 +16679,33 @@
         <v>2020</v>
       </c>
       <c r="W70" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="X70" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Y70" t="s">
         <v>34</v>
       </c>
       <c r="Z70" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B71" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C71" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D71" t="s">
         <v>329</v>
       </c>
       <c r="E71" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F71" s="2">
         <v>2.41668E-4</v>
@@ -16946,20 +16768,11 @@
         <v>34</v>
       </c>
       <c r="Z71" s="3" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z71" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="25">
-      <filters>
-        <filter val="No Translations Found"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:Z50">
-      <sortCondition descending="1" ref="G1:G70"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:Z71" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/top_decade_songs_translated.xlsx
+++ b/data/top_decade_songs_translated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3718bcc9183a9f2/Documents/GitHub/sicss-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{0EE6B143-13C4-4A9B-89CB-68319EC2EF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{749A9926-CAC6-4CDE-9102-2BE6A5ACD9FC}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{0EE6B143-13C4-4A9B-89CB-68319EC2EF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D6AE274-1A28-4336-A6A7-12B6C1C80932}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4008" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11080,9 +11080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z60" sqref="Z60"/>
+      <selection pane="topRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11171,7 +11171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -11238,7 +11238,7 @@
       <c r="V2">
         <v>1960</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="X2" t="s">
@@ -11251,7 +11251,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -11318,7 +11318,7 @@
       <c r="V3">
         <v>1960</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="X3" t="s">
@@ -11411,7 +11411,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -11478,7 +11478,7 @@
       <c r="V5">
         <v>1960</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="3" t="s">
         <v>58</v>
       </c>
       <c r="X5" t="s">
@@ -11491,7 +11491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -11558,7 +11558,7 @@
       <c r="V6">
         <v>1960</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="X6" t="s">
@@ -11571,7 +11571,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -11638,7 +11638,7 @@
       <c r="V7">
         <v>1960</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="3" t="s">
         <v>73</v>
       </c>
       <c r="X7" t="s">
@@ -11651,7 +11651,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -11718,7 +11718,7 @@
       <c r="V8">
         <v>1960</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="3" t="s">
         <v>81</v>
       </c>
       <c r="X8" t="s">
@@ -11731,7 +11731,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -11798,7 +11798,7 @@
       <c r="V9">
         <v>1960</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="3" t="s">
         <v>88</v>
       </c>
       <c r="X9" t="s">
@@ -11811,7 +11811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -11878,7 +11878,7 @@
       <c r="V10">
         <v>1960</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="3" t="s">
         <v>95</v>
       </c>
       <c r="X10" t="s">
@@ -11891,7 +11891,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -11958,7 +11958,7 @@
       <c r="V11">
         <v>1960</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="3" t="s">
         <v>103</v>
       </c>
       <c r="X11" t="s">
